--- a/Statistics.xlsx
+++ b/Statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\visantana\Documents\tropical-captcha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FF1858-B0F2-4BAD-9080-DFA968EC5FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBCAE82-46B2-468F-A9C1-C571289B8A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4C442BAE-72A5-4FC8-B341-142119C3F4E2}"/>
   </bookViews>
@@ -51,7 +51,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,13 +77,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -96,22 +113,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -429,11 +451,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BF99DE8-67B1-45F9-A2DD-5E4F962D548D}">
-  <dimension ref="I5:P39"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="S41" sqref="S41"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -441,460 +461,578 @@
     <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I8" s="5" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-    </row>
-    <row r="9" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I9" s="2">
-        <v>2</v>
-      </c>
-      <c r="J9" s="2">
-        <f>6-I9</f>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <f>6-A2</f>
         <v>4</v>
       </c>
-      <c r="K9" s="3">
-        <f>I9/6</f>
+      <c r="C2" s="2">
+        <f>A2/6</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I10" s="2">
-        <v>5</v>
-      </c>
-      <c r="J10" s="2">
-        <f t="shared" ref="J10:J35" si="0">6-I10</f>
-        <v>1</v>
-      </c>
-      <c r="K10" s="3">
-        <f t="shared" ref="K10:K35" si="1">I10/6</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-    </row>
-    <row r="11" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I11" s="2">
-        <v>3</v>
-      </c>
-      <c r="J11" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="K11" s="3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <f t="shared" ref="B3:B38" si="0">6-A3</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C38" si="1">A3/6</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F3" s="1">
+        <f>SUM(A:A)</f>
+        <v>145</v>
+      </c>
+      <c r="G3" s="1">
+        <f>SUM(B2:B38)</f>
+        <v>77</v>
+      </c>
+      <c r="H3" s="7">
+        <f>AVERAGE(C2:C38)</f>
+        <v>0.65315315315315314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-    </row>
-    <row r="12" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I12" s="2">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="J12" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="B5" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-    </row>
-    <row r="13" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I13" s="2">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="J13" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K13" s="3">
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-    </row>
-    <row r="14" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I14" s="2">
-        <v>3</v>
-      </c>
-      <c r="J14" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="K14" s="3">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-    </row>
-    <row r="15" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I15" s="2">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="J15" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C8" s="2">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-    </row>
-    <row r="16" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I16" s="2">
-        <v>3</v>
-      </c>
-      <c r="J16" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="K16" s="3">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C9" s="2">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-    </row>
-    <row r="17" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I17" s="2">
-        <v>3</v>
-      </c>
-      <c r="J17" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C10" s="2">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-    </row>
-    <row r="18" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I18" s="2">
-        <v>2</v>
-      </c>
-      <c r="J18" s="2">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K18" s="3">
+      <c r="C11" s="2">
         <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-    </row>
-    <row r="19" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I19" s="2">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>4</v>
       </c>
-      <c r="J19" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K19" s="3">
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C12" s="2">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-    </row>
-    <row r="20" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I20" s="2">
-        <v>5</v>
-      </c>
-      <c r="J20" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K20" s="3">
-        <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-    </row>
-    <row r="21" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I21" s="2">
-        <v>5</v>
-      </c>
-      <c r="J21" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K21" s="3">
-        <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="22" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I22" s="2">
-        <v>5</v>
-      </c>
-      <c r="J22" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K22" s="3">
-        <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="23" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I23" s="2">
-        <v>5</v>
-      </c>
-      <c r="J23" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K23" s="3">
-        <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="24" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I24" s="2">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>4</v>
       </c>
-      <c r="J24" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="B17" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C17" s="2">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="25" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I25" s="2">
-        <v>3</v>
-      </c>
-      <c r="J25" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="K25" s="3">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C18" s="2">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="26" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I26" s="2">
-        <v>5</v>
-      </c>
-      <c r="J26" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K26" s="3">
-        <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="27" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I27" s="2">
-        <v>3</v>
-      </c>
-      <c r="J27" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C20" s="2">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="28" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I28" s="2">
-        <v>3</v>
-      </c>
-      <c r="J28" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="K28" s="3">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C21" s="2">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I29" s="2">
-        <v>5</v>
-      </c>
-      <c r="J29" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K29" s="3">
-        <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="30" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I30" s="2">
-        <v>5</v>
-      </c>
-      <c r="J30" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K30" s="3">
-        <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="31" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I31" s="2">
-        <v>3</v>
-      </c>
-      <c r="J31" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="K31" s="3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C24" s="2">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I32" s="2">
-        <v>3</v>
-      </c>
-      <c r="J32" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="K32" s="3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C25" s="2">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I33" s="2">
-        <v>5</v>
-      </c>
-      <c r="J33" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K33" s="3">
-        <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="34" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I34" s="2">
-        <v>5</v>
-      </c>
-      <c r="J34" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K34" s="3">
-        <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="35" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I35" s="2">
-        <v>3</v>
-      </c>
-      <c r="J35" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="K35" s="3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>3</v>
+      </c>
+      <c r="B28" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C28" s="2">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I39" s="2">
-        <f>SUM(I9:I35)</f>
-        <v>104</v>
-      </c>
-      <c r="J39" s="2">
-        <f>SUM(J9:J35)</f>
-        <v>58</v>
-      </c>
-      <c r="K39" s="4">
-        <f>AVERAGE(K9:K35)</f>
-        <v>0.64197530864197527</v>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C30" s="2">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C31" s="2">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C32" s="2">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C33" s="2">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>6</v>
+      </c>
+      <c r="B34" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C34" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>3</v>
+      </c>
+      <c r="B35" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C35" s="2">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>4</v>
+      </c>
+      <c r="B36" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C36" s="2">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>5</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>4</v>
+      </c>
+      <c r="B38" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C38" s="2">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
       </c>
     </row>
   </sheetData>
